--- a/三目並べ/03_構造化設計/非機能要求一覧.xlsx
+++ b/三目並べ/03_構造化設計/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0C0309-5A85-46DA-B34F-450EE7BBA4F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029D2C2-1A81-4C84-96D6-C5FD48F0EEC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5010" yWindow="990" windowWidth="12735" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2259,9 +2259,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2449,19 +2452,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2485,9 +2484,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>